--- a/results/mp/logistic/corona/confidence/42/desired-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/42/desired-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="142">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,43 +40,49 @@
     <t>name</t>
   </si>
   <si>
+    <t>death</t>
+  </si>
+  <si>
+    <t>arrested</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
     <t>die</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
     <t>kill</t>
   </si>
   <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
     <t>warning</t>
   </si>
   <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>infected</t>
-  </si>
-  <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>hell</t>
+    <t>problem</t>
   </si>
   <si>
     <t>sc</t>
@@ -94,33 +100,24 @@
     <t>fears</t>
   </si>
   <si>
-    <t>problem</t>
-  </si>
-  <si>
-    <t>anxiety</t>
-  </si>
-  <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>sick</t>
+    <t>falling</t>
+  </si>
+  <si>
+    <t>avoid</t>
   </si>
   <si>
     <t>lower</t>
   </si>
   <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>falling</t>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>emergency</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>cut</t>
   </si>
   <si>
@@ -130,6 +127,9 @@
     <t>empty</t>
   </si>
   <si>
+    <t>risk</t>
+  </si>
+  <si>
     <t>stop</t>
   </si>
   <si>
@@ -139,30 +139,45 @@
     <t>oil</t>
   </si>
   <si>
+    <t>co</t>
+  </si>
+  <si>
     <t>of</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
     <t>a</t>
   </si>
   <si>
-    <t>co</t>
+    <t>on</t>
+  </si>
+  <si>
+    <t>the</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
   <si>
     <t>corona</t>
   </si>
   <si>
-    <t>,</t>
-  </si>
-  <si>
-    <t>and</t>
-  </si>
-  <si>
-    <t>the</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
     <t>to</t>
   </si>
   <si>
@@ -175,31 +190,46 @@
     <t>amazing</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>sharing</t>
   </si>
   <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>confidence</t>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>positive</t>
   </si>
   <si>
     <t>support</t>
@@ -211,211 +241,205 @@
     <t>heroes</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>join</t>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>nice</t>
   </si>
   <si>
     <t>won</t>
   </si>
   <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>nice</t>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>toronto</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>save</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
+    <t>create</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
     <t>relief</t>
   </si>
   <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
     <t>god</t>
   </si>
   <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>friend</t>
+    <t>healthy</t>
   </si>
   <si>
     <t>giving</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>healthy</t>
+    <t>share</t>
+  </si>
+  <si>
+    <t>team</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
   <si>
     <t>super</t>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>shares</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
     <t>kind</t>
   </si>
   <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>safety</t>
+    <t>clean</t>
   </si>
   <si>
     <t>funny</t>
   </si>
   <si>
-    <t>team</t>
+    <t>important</t>
   </si>
   <si>
     <t>alert</t>
   </si>
   <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
     <t>sure</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>clean</t>
+    <t>data</t>
+  </si>
+  <si>
+    <t>energy</t>
   </si>
   <si>
     <t>helping</t>
   </si>
   <si>
+    <t>article</t>
+  </si>
+  <si>
     <t>increased</t>
   </si>
   <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
     <t>keep</t>
   </si>
   <si>
-    <t>day</t>
+    <t>check</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>your</t>
   </si>
   <si>
     <t>stay</t>
   </si>
   <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
     <t>our</t>
   </si>
   <si>
-    <t>you</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>your</t>
-  </si>
-  <si>
     <t>we</t>
   </si>
   <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>are</t>
+  </si>
+  <si>
     <t>!</t>
   </si>
   <si>
+    <t>at</t>
+  </si>
+  <si>
     <t>i</t>
   </si>
   <si>
     <t>grocery</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>are</t>
-  </si>
-  <si>
-    <t>for</t>
-  </si>
-  <si>
-    <t>on</t>
-  </si>
-  <si>
-    <t>in</t>
   </si>
 </sst>
 </file>
@@ -773,7 +797,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q91"/>
+  <dimension ref="A1:Q99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -781,10 +805,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="J1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -842,13 +866,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8918918918918919</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C3">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -860,10 +884,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="K3">
         <v>0.9782608695652174</v>
@@ -892,13 +916,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.868421052631579</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C4">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -910,10 +934,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="K4">
         <v>0.9444444444444444</v>
@@ -942,13 +966,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8421052631578947</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C5">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D5">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -960,19 +984,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="K5">
-        <v>0.9416666666666667</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L5">
-        <v>113</v>
+        <v>31</v>
       </c>
       <c r="M5">
-        <v>113</v>
+        <v>31</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -984,7 +1008,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -992,13 +1016,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.84</v>
+        <v>0.8108108108108109</v>
       </c>
       <c r="C6">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D6">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1010,19 +1034,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="K6">
-        <v>0.9375</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="L6">
-        <v>15</v>
+        <v>112</v>
       </c>
       <c r="M6">
-        <v>15</v>
+        <v>112</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1034,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1042,13 +1066,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8333333333333334</v>
+        <v>0.8082191780821918</v>
       </c>
       <c r="C7">
-        <v>25</v>
+        <v>236</v>
       </c>
       <c r="D7">
-        <v>25</v>
+        <v>236</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1060,19 +1084,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="J7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K7">
+        <v>0.9322033898305084</v>
+      </c>
+      <c r="L7">
         <v>55</v>
       </c>
-      <c r="K7">
-        <v>0.9333333333333333</v>
-      </c>
-      <c r="L7">
-        <v>14</v>
-      </c>
       <c r="M7">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1084,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1092,13 +1116,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8116438356164384</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C8">
-        <v>237</v>
+        <v>30</v>
       </c>
       <c r="D8">
-        <v>237</v>
+        <v>30</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1110,19 +1134,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="K8">
-        <v>0.9322033898305084</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L8">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="M8">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1134,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1142,13 +1166,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8055555555555556</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C9">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D9">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1160,19 +1184,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="K9">
-        <v>0.9166666666666666</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L9">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="M9">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1184,7 +1208,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1192,13 +1216,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7931034482758621</v>
+        <v>0.75</v>
       </c>
       <c r="C10">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D10">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1210,19 +1234,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="K10">
-        <v>0.9138381201044387</v>
+        <v>0.9069767441860465</v>
       </c>
       <c r="L10">
-        <v>350</v>
+        <v>39</v>
       </c>
       <c r="M10">
-        <v>350</v>
+        <v>39</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1234,7 +1258,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>33</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1242,13 +1266,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7894736842105263</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C11">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1260,19 +1284,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K11">
-        <v>0.9090909090909091</v>
+        <v>0.8955613577023499</v>
       </c>
       <c r="L11">
-        <v>30</v>
+        <v>343</v>
       </c>
       <c r="M11">
-        <v>30</v>
+        <v>343</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1284,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>3</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1292,13 +1316,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7352941176470589</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C12">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D12">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1310,19 +1334,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="K12">
-        <v>0.9017857142857143</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L12">
-        <v>101</v>
+        <v>17</v>
       </c>
       <c r="M12">
-        <v>101</v>
+        <v>17</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1334,7 +1358,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1342,13 +1366,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7307692307692307</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="C13">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D13">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1360,10 +1384,10 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="K13">
         <v>0.8888888888888888</v>
@@ -1395,10 +1419,10 @@
         <v>0.7</v>
       </c>
       <c r="C14">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D14">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1410,19 +1434,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="K14">
-        <v>0.8773584905660378</v>
+        <v>0.8839285714285714</v>
       </c>
       <c r="L14">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="M14">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1463,16 +1487,16 @@
         <v>7</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="K15">
-        <v>0.875</v>
+        <v>0.8828125</v>
       </c>
       <c r="L15">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="M15">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1484,7 +1508,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1492,13 +1516,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5873015873015873</v>
+        <v>0.64</v>
       </c>
       <c r="C16">
-        <v>111</v>
+        <v>16</v>
       </c>
       <c r="D16">
-        <v>111</v>
+        <v>16</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1510,19 +1534,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="K16">
-        <v>0.8723404255319149</v>
+        <v>0.875</v>
       </c>
       <c r="L16">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="M16">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1534,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1542,13 +1566,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5423728813559322</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="C17">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D17">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1560,19 +1584,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="K17">
-        <v>0.8658536585365854</v>
+        <v>0.8732394366197183</v>
       </c>
       <c r="L17">
-        <v>71</v>
+        <v>124</v>
       </c>
       <c r="M17">
-        <v>71</v>
+        <v>124</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1584,7 +1608,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1592,13 +1616,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5290697674418605</v>
+        <v>0.6031746031746031</v>
       </c>
       <c r="C18">
-        <v>273</v>
+        <v>114</v>
       </c>
       <c r="D18">
-        <v>273</v>
+        <v>114</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1610,19 +1634,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>243</v>
+        <v>75</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="K18">
-        <v>0.859375</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="L18">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="M18">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1634,7 +1658,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1642,13 +1666,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5185185185185185</v>
+        <v>0.576271186440678</v>
       </c>
       <c r="C19">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="D19">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1660,19 +1684,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="K19">
-        <v>0.852112676056338</v>
+        <v>0.8584905660377359</v>
       </c>
       <c r="L19">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="M19">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1684,7 +1708,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1692,13 +1716,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4901960784313725</v>
+        <v>0.5445736434108527</v>
       </c>
       <c r="C20">
-        <v>25</v>
+        <v>281</v>
       </c>
       <c r="D20">
-        <v>25</v>
+        <v>281</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1710,19 +1734,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>26</v>
+        <v>235</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="K20">
-        <v>0.8461538461538461</v>
+        <v>0.85625</v>
       </c>
       <c r="L20">
-        <v>22</v>
+        <v>137</v>
       </c>
       <c r="M20">
-        <v>22</v>
+        <v>137</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1734,7 +1758,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1742,7 +1766,7 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4666666666666667</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="C21">
         <v>14</v>
@@ -1760,19 +1784,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="K21">
-        <v>0.8448275862068966</v>
+        <v>0.851063829787234</v>
       </c>
       <c r="L21">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="M21">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1784,7 +1808,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1792,13 +1816,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4516129032258064</v>
+        <v>0.4509803921568628</v>
       </c>
       <c r="C22">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D22">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1810,19 +1834,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="K22">
-        <v>0.8372093023255814</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L22">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="M22">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1834,7 +1858,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1842,13 +1866,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4516129032258064</v>
+        <v>0.4</v>
       </c>
       <c r="C23">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D23">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1860,19 +1884,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="K23">
-        <v>0.8205128205128205</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L23">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="M23">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1884,7 +1908,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1892,13 +1916,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.40625</v>
+        <v>0.3818181818181818</v>
       </c>
       <c r="C24">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D24">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1910,19 +1934,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="K24">
-        <v>0.8181818181818182</v>
+        <v>0.825</v>
       </c>
       <c r="L24">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="M24">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1934,7 +1958,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1942,13 +1966,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3928571428571428</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="C25">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D25">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1960,10 +1984,10 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="K25">
         <v>0.8148148148148148</v>
@@ -1992,13 +2016,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3818181818181818</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C26">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D26">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2010,19 +2034,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K26">
-        <v>0.8125</v>
+        <v>0.7948717948717948</v>
       </c>
       <c r="L26">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="M26">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -2034,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2042,38 +2066,38 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.375</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C27">
+        <v>25</v>
+      </c>
+      <c r="D27">
+        <v>25</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>50</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K27">
+        <v>0.7894736842105263</v>
+      </c>
+      <c r="L27">
         <v>15</v>
       </c>
-      <c r="D27">
+      <c r="M27">
         <v>15</v>
       </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>25</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K27">
-        <v>0.8</v>
-      </c>
-      <c r="L27">
-        <v>40</v>
-      </c>
-      <c r="M27">
-        <v>40</v>
-      </c>
       <c r="N27">
         <v>1</v>
       </c>
@@ -2084,7 +2108,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2092,13 +2116,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3422818791946309</v>
+        <v>0.3288590604026846</v>
       </c>
       <c r="C28">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D28">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2110,19 +2134,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K28">
-        <v>0.7916666666666666</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="L28">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M28">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2134,7 +2158,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2142,13 +2166,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.3333333333333333</v>
+        <v>0.3090909090909091</v>
       </c>
       <c r="C29">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D29">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2160,19 +2184,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K29">
-        <v>0.7916666666666666</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="L29">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M29">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2184,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2192,13 +2216,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.2727272727272727</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="C30">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="D30">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2210,19 +2234,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>40</v>
+        <v>260</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K30">
-        <v>0.7894736842105263</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="L30">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="M30">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2234,7 +2258,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2242,13 +2266,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.2666666666666667</v>
+        <v>0.2444444444444444</v>
       </c>
       <c r="C31">
-        <v>96</v>
+        <v>22</v>
       </c>
       <c r="D31">
-        <v>96</v>
+        <v>22</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2260,19 +2284,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>264</v>
+        <v>68</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="K31">
-        <v>0.7878787878787878</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="L31">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="M31">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2284,7 +2308,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2292,13 +2316,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.2555555555555555</v>
+        <v>0.2077922077922078</v>
       </c>
       <c r="C32">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D32">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2310,19 +2334,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K32">
-        <v>0.7857142857142857</v>
+        <v>0.7714285714285715</v>
       </c>
       <c r="L32">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="M32">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2334,7 +2358,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2342,13 +2366,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.1507936507936508</v>
+        <v>0.1547619047619048</v>
       </c>
       <c r="C33">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D33">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2360,19 +2384,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K33">
-        <v>0.7777777777777778</v>
+        <v>0.7708333333333334</v>
       </c>
       <c r="L33">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="M33">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2384,7 +2408,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2392,37 +2416,37 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.06970509383378017</v>
+        <v>0.09677419354838709</v>
       </c>
       <c r="C34">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D34">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K34">
-        <v>0.7727272727272727</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="L34">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M34">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2434,7 +2458,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2463,16 +2487,16 @@
         <v>287</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K35">
-        <v>0.75</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="L35">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="M35">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2484,7 +2508,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2492,37 +2516,37 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.009716941275876637</v>
+        <v>0.01712992889463478</v>
       </c>
       <c r="C36">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="D36">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="E36">
-        <v>0.34</v>
+        <v>0.2</v>
       </c>
       <c r="F36">
-        <v>0.6599999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="G36" t="b">
         <v>1</v>
       </c>
       <c r="H36">
-        <v>2344</v>
+        <v>3041</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K36">
-        <v>0.7428571428571429</v>
+        <v>0.75</v>
       </c>
       <c r="L36">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="M36">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2534,7 +2558,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2542,37 +2566,37 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.00827165868524162</v>
+        <v>0.01692047377326565</v>
       </c>
       <c r="C37">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="D37">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="E37">
-        <v>0.39</v>
+        <v>0.27</v>
       </c>
       <c r="F37">
-        <v>0.61</v>
+        <v>0.73</v>
       </c>
       <c r="G37" t="b">
         <v>1</v>
       </c>
       <c r="H37">
-        <v>2278</v>
+        <v>2324</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="K37">
-        <v>0.7423728813559322</v>
+        <v>0.7470588235294118</v>
       </c>
       <c r="L37">
-        <v>219</v>
+        <v>254</v>
       </c>
       <c r="M37">
-        <v>219</v>
+        <v>254</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2584,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2592,37 +2616,37 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.007416962270235408</v>
+        <v>0.01649387370405278</v>
       </c>
       <c r="C38">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D38">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="E38">
-        <v>0.21</v>
+        <v>0.38</v>
       </c>
       <c r="F38">
-        <v>0.79</v>
+        <v>0.62</v>
       </c>
       <c r="G38" t="b">
         <v>1</v>
       </c>
       <c r="H38">
-        <v>3078</v>
+        <v>2087</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="K38">
-        <v>0.7368421052631579</v>
+        <v>0.7312925170068028</v>
       </c>
       <c r="L38">
-        <v>14</v>
+        <v>215</v>
       </c>
       <c r="M38">
-        <v>14</v>
+        <v>216</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2631,10 +2655,10 @@
         <v>0</v>
       </c>
       <c r="P38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q38">
-        <v>5</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2642,37 +2666,37 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.00630715862503942</v>
+        <v>0.01609195402298851</v>
       </c>
       <c r="C39">
+        <v>14</v>
+      </c>
+      <c r="D39">
+        <v>26</v>
+      </c>
+      <c r="E39">
+        <v>0.46</v>
+      </c>
+      <c r="F39">
+        <v>0.54</v>
+      </c>
+      <c r="G39" t="b">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>856</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K39">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="L39">
         <v>20</v>
       </c>
-      <c r="D39">
-        <v>50</v>
-      </c>
-      <c r="E39">
-        <v>0.6</v>
-      </c>
-      <c r="F39">
-        <v>0.4</v>
-      </c>
-      <c r="G39" t="b">
-        <v>1</v>
-      </c>
-      <c r="H39">
-        <v>3151</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="K39">
-        <v>0.7352941176470589</v>
-      </c>
-      <c r="L39">
-        <v>250</v>
-      </c>
       <c r="M39">
-        <v>250</v>
+        <v>20</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2684,7 +2708,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>90</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2692,49 +2716,49 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.005789909015715467</v>
+        <v>0.01561144839549003</v>
       </c>
       <c r="C40">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D40">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="E40">
-        <v>0.66</v>
+        <v>0.31</v>
       </c>
       <c r="F40">
-        <v>0.34</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="G40" t="b">
         <v>1</v>
       </c>
       <c r="H40">
-        <v>2404</v>
+        <v>1135</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="K40">
-        <v>0.6890756302521008</v>
+        <v>0.7</v>
       </c>
       <c r="L40">
-        <v>164</v>
+        <v>35</v>
       </c>
       <c r="M40">
-        <v>165</v>
+        <v>35</v>
       </c>
       <c r="N40">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O40">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>74</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2742,49 +2766,49 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.00533739992375143</v>
+        <v>0.01311188811188811</v>
       </c>
       <c r="C41">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D41">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="E41">
-        <v>0.78</v>
+        <v>0.41</v>
       </c>
       <c r="F41">
-        <v>0.22</v>
+        <v>0.5900000000000001</v>
       </c>
       <c r="G41" t="b">
         <v>1</v>
       </c>
       <c r="H41">
-        <v>2609</v>
+        <v>2258</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="K41">
-        <v>0.6853932584269663</v>
+        <v>0.6890756302521008</v>
       </c>
       <c r="L41">
-        <v>61</v>
+        <v>164</v>
       </c>
       <c r="M41">
-        <v>61</v>
+        <v>165</v>
       </c>
       <c r="N41">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O41">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q41">
-        <v>28</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2792,28 +2816,28 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.004301075268817204</v>
+        <v>0.01240035429583702</v>
       </c>
       <c r="C42">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D42">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="E42">
-        <v>0.6899999999999999</v>
+        <v>0.44</v>
       </c>
       <c r="F42">
-        <v>0.3100000000000001</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="G42" t="b">
         <v>1</v>
       </c>
       <c r="H42">
-        <v>5093</v>
+        <v>1115</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="K42">
         <v>0.6808510638297872</v>
@@ -2842,37 +2866,37 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.004244996967859308</v>
+        <v>0.008243375858684985</v>
       </c>
       <c r="C43">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="D43">
-        <v>70</v>
+        <v>112</v>
       </c>
       <c r="E43">
-        <v>0.7</v>
+        <v>0.62</v>
       </c>
       <c r="F43">
-        <v>0.3</v>
+        <v>0.38</v>
       </c>
       <c r="G43" t="b">
         <v>1</v>
       </c>
       <c r="H43">
-        <v>4926</v>
+        <v>5053</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="K43">
-        <v>0.6785714285714286</v>
+        <v>0.6741573033707865</v>
       </c>
       <c r="L43">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="M43">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2884,7 +2908,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>9</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2892,37 +2916,37 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.004198740377886634</v>
+        <v>0.007260221627818112</v>
       </c>
       <c r="C44">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D44">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="E44">
-        <v>0.6899999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="F44">
-        <v>0.3100000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="G44" t="b">
         <v>1</v>
       </c>
       <c r="H44">
-        <v>4269</v>
+        <v>2598</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="K44">
         <v>0.6666666666666666</v>
       </c>
       <c r="L44">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M44">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2934,21 +2958,45 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:17">
+      <c r="A45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45">
+        <v>0.007068607068607069</v>
+      </c>
+      <c r="C45">
+        <v>17</v>
+      </c>
+      <c r="D45">
+        <v>57</v>
+      </c>
+      <c r="E45">
+        <v>0.7</v>
+      </c>
+      <c r="F45">
+        <v>0.3</v>
+      </c>
+      <c r="G45" t="b">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>2388</v>
+      </c>
       <c r="J45" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="K45">
         <v>0.6666666666666666</v>
       </c>
       <c r="L45">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M45">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2960,411 +3008,507 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:17">
+      <c r="A46" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46">
+        <v>0.006088992974238876</v>
+      </c>
+      <c r="C46">
+        <v>13</v>
+      </c>
+      <c r="D46">
+        <v>36</v>
+      </c>
+      <c r="E46">
+        <v>0.64</v>
+      </c>
+      <c r="F46">
+        <v>0.36</v>
+      </c>
+      <c r="G46" t="b">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>2122</v>
+      </c>
       <c r="J46" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="K46">
         <v>0.6666666666666666</v>
       </c>
       <c r="L46">
+        <v>22</v>
+      </c>
+      <c r="M46">
+        <v>22</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47">
+        <v>0.006088897909478384</v>
+      </c>
+      <c r="C47">
+        <v>30</v>
+      </c>
+      <c r="D47">
+        <v>99</v>
+      </c>
+      <c r="E47">
+        <v>0.7</v>
+      </c>
+      <c r="F47">
+        <v>0.3</v>
+      </c>
+      <c r="G47" t="b">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>4897</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K47">
+        <v>0.6571428571428571</v>
+      </c>
+      <c r="L47">
+        <v>46</v>
+      </c>
+      <c r="M47">
+        <v>46</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="A48" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48">
+        <v>0.005710659898477157</v>
+      </c>
+      <c r="C48">
         <v>18</v>
       </c>
-      <c r="M46">
+      <c r="D48">
+        <v>67</v>
+      </c>
+      <c r="E48">
+        <v>0.73</v>
+      </c>
+      <c r="F48">
+        <v>0.27</v>
+      </c>
+      <c r="G48" t="b">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>3134</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K48">
+        <v>0.6538461538461539</v>
+      </c>
+      <c r="L48">
+        <v>17</v>
+      </c>
+      <c r="M48">
+        <v>17</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
+      <c r="A49" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49">
+        <v>0.004903105300023348</v>
+      </c>
+      <c r="C49">
+        <v>21</v>
+      </c>
+      <c r="D49">
+        <v>66</v>
+      </c>
+      <c r="E49">
+        <v>0.68</v>
+      </c>
+      <c r="F49">
+        <v>0.32</v>
+      </c>
+      <c r="G49" t="b">
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <v>4262</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K49">
+        <v>0.6521739130434783</v>
+      </c>
+      <c r="L49">
+        <v>15</v>
+      </c>
+      <c r="M49">
+        <v>15</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
+      <c r="J50" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K50">
+        <v>0.6307692307692307</v>
+      </c>
+      <c r="L50">
+        <v>41</v>
+      </c>
+      <c r="M50">
+        <v>41</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
+      <c r="J51" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K51">
+        <v>0.6153846153846154</v>
+      </c>
+      <c r="L51">
+        <v>16</v>
+      </c>
+      <c r="M51">
+        <v>16</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
+      <c r="J52" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K52">
+        <v>0.6078431372549019</v>
+      </c>
+      <c r="L52">
+        <v>31</v>
+      </c>
+      <c r="M52">
+        <v>31</v>
+      </c>
+      <c r="N52">
+        <v>1</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17">
+      <c r="J53" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K53">
+        <v>0.6071428571428571</v>
+      </c>
+      <c r="L53">
+        <v>17</v>
+      </c>
+      <c r="M53">
+        <v>17</v>
+      </c>
+      <c r="N53">
+        <v>1</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17">
+      <c r="J54" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K54">
+        <v>0.5925925925925926</v>
+      </c>
+      <c r="L54">
+        <v>16</v>
+      </c>
+      <c r="M54">
+        <v>16</v>
+      </c>
+      <c r="N54">
+        <v>1</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17">
+      <c r="J55" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K55">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="L55">
+        <v>14</v>
+      </c>
+      <c r="M55">
+        <v>14</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17">
+      <c r="J56" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K56">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="L56">
+        <v>14</v>
+      </c>
+      <c r="M56">
+        <v>14</v>
+      </c>
+      <c r="N56">
+        <v>1</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17">
+      <c r="J57" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K57">
+        <v>0.5806451612903226</v>
+      </c>
+      <c r="L57">
         <v>18</v>
       </c>
-      <c r="N46">
-        <v>1</v>
-      </c>
-      <c r="O46">
-        <v>0</v>
-      </c>
-      <c r="P46" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q46">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17">
-      <c r="J47" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="K47">
-        <v>0.6461538461538462</v>
-      </c>
-      <c r="L47">
-        <v>42</v>
-      </c>
-      <c r="M47">
-        <v>42</v>
-      </c>
-      <c r="N47">
-        <v>1</v>
-      </c>
-      <c r="O47">
-        <v>0</v>
-      </c>
-      <c r="P47" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q47">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17">
-      <c r="J48" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="K48">
-        <v>0.6428571428571429</v>
-      </c>
-      <c r="L48">
+      <c r="M57">
         <v>18</v>
       </c>
-      <c r="M48">
-        <v>18</v>
-      </c>
-      <c r="N48">
-        <v>1</v>
-      </c>
-      <c r="O48">
-        <v>0</v>
-      </c>
-      <c r="P48" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q48">
+      <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17">
+      <c r="J58" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K58">
+        <v>0.5652173913043478</v>
+      </c>
+      <c r="L58">
+        <v>13</v>
+      </c>
+      <c r="M58">
+        <v>13</v>
+      </c>
+      <c r="N58">
+        <v>1</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q58">
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="10:17">
-      <c r="J49" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="K49">
-        <v>0.6428571428571429</v>
-      </c>
-      <c r="L49">
-        <v>45</v>
-      </c>
-      <c r="M49">
-        <v>45</v>
-      </c>
-      <c r="N49">
-        <v>1</v>
-      </c>
-      <c r="O49">
-        <v>0</v>
-      </c>
-      <c r="P49" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q49">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="50" spans="10:17">
-      <c r="J50" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="K50">
-        <v>0.6428571428571429</v>
-      </c>
-      <c r="L50">
-        <v>18</v>
-      </c>
-      <c r="M50">
-        <v>18</v>
-      </c>
-      <c r="N50">
-        <v>1</v>
-      </c>
-      <c r="O50">
-        <v>0</v>
-      </c>
-      <c r="P50" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q50">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51" spans="10:17">
-      <c r="J51" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="K51">
-        <v>0.6190476190476191</v>
-      </c>
-      <c r="L51">
-        <v>13</v>
-      </c>
-      <c r="M51">
-        <v>13</v>
-      </c>
-      <c r="N51">
-        <v>1</v>
-      </c>
-      <c r="O51">
-        <v>0</v>
-      </c>
-      <c r="P51" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q51">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="52" spans="10:17">
-      <c r="J52" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="K52">
-        <v>0.6086956521739131</v>
-      </c>
-      <c r="L52">
-        <v>14</v>
-      </c>
-      <c r="M52">
-        <v>14</v>
-      </c>
-      <c r="N52">
-        <v>1</v>
-      </c>
-      <c r="O52">
-        <v>0</v>
-      </c>
-      <c r="P52" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q52">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="53" spans="10:17">
-      <c r="J53" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="K53">
-        <v>0.5833333333333334</v>
-      </c>
-      <c r="L53">
-        <v>14</v>
-      </c>
-      <c r="M53">
-        <v>14</v>
-      </c>
-      <c r="N53">
-        <v>1</v>
-      </c>
-      <c r="O53">
-        <v>0</v>
-      </c>
-      <c r="P53" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q53">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="54" spans="10:17">
-      <c r="J54" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="K54">
-        <v>0.5833333333333334</v>
-      </c>
-      <c r="L54">
-        <v>14</v>
-      </c>
-      <c r="M54">
-        <v>14</v>
-      </c>
-      <c r="N54">
-        <v>1</v>
-      </c>
-      <c r="O54">
-        <v>0</v>
-      </c>
-      <c r="P54" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q54">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="55" spans="10:17">
-      <c r="J55" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="K55">
-        <v>0.5769230769230769</v>
-      </c>
-      <c r="L55">
-        <v>15</v>
-      </c>
-      <c r="M55">
-        <v>15</v>
-      </c>
-      <c r="N55">
-        <v>1</v>
-      </c>
-      <c r="O55">
-        <v>0</v>
-      </c>
-      <c r="P55" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q55">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="56" spans="10:17">
-      <c r="J56" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="K56">
-        <v>0.5686274509803921</v>
-      </c>
-      <c r="L56">
-        <v>29</v>
-      </c>
-      <c r="M56">
-        <v>29</v>
-      </c>
-      <c r="N56">
-        <v>1</v>
-      </c>
-      <c r="O56">
-        <v>0</v>
-      </c>
-      <c r="P56" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q56">
+    <row r="59" spans="1:17">
+      <c r="J59" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K59">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="L59">
+        <v>24</v>
+      </c>
+      <c r="M59">
+        <v>24</v>
+      </c>
+      <c r="N59">
+        <v>1</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17">
+      <c r="J60" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K60">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="L60">
         <v>22</v>
       </c>
-    </row>
-    <row r="57" spans="10:17">
-      <c r="J57" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="K57">
-        <v>0.5652173913043478</v>
-      </c>
-      <c r="L57">
-        <v>13</v>
-      </c>
-      <c r="M57">
-        <v>13</v>
-      </c>
-      <c r="N57">
-        <v>1</v>
-      </c>
-      <c r="O57">
-        <v>0</v>
-      </c>
-      <c r="P57" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q57">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="58" spans="10:17">
-      <c r="J58" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="K58">
-        <v>0.5384615384615384</v>
-      </c>
-      <c r="L58">
-        <v>14</v>
-      </c>
-      <c r="M58">
-        <v>14</v>
-      </c>
-      <c r="N58">
-        <v>1</v>
-      </c>
-      <c r="O58">
-        <v>0</v>
-      </c>
-      <c r="P58" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q58">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="59" spans="10:17">
-      <c r="J59" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="K59">
-        <v>0.5238095238095238</v>
-      </c>
-      <c r="L59">
+      <c r="M60">
         <v>22</v>
       </c>
-      <c r="M59">
-        <v>22</v>
-      </c>
-      <c r="N59">
-        <v>1</v>
-      </c>
-      <c r="O59">
-        <v>0</v>
-      </c>
-      <c r="P59" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q59">
+      <c r="N60">
+        <v>1</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q60">
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="10:17">
-      <c r="J60" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="K60">
-        <v>0.46875</v>
-      </c>
-      <c r="L60">
-        <v>30</v>
-      </c>
-      <c r="M60">
-        <v>30</v>
-      </c>
-      <c r="N60">
-        <v>1</v>
-      </c>
-      <c r="O60">
-        <v>0</v>
-      </c>
-      <c r="P60" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q60">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="61" spans="10:17">
+    <row r="61" spans="1:17">
       <c r="J61" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="K61">
-        <v>0.4666666666666667</v>
+        <v>0.5068493150684932</v>
       </c>
       <c r="L61">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="M61">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -3376,21 +3520,21 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="62" spans="10:17">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17">
       <c r="J62" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="K62">
-        <v>0.4615384615384616</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="L62">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M62">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -3402,12 +3546,12 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="63" spans="10:17">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17">
       <c r="J63" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="K63">
         <v>0.4411764705882353</v>
@@ -3431,18 +3575,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="64" spans="10:17">
+    <row r="64" spans="1:17">
       <c r="J64" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="K64">
-        <v>0.4383561643835616</v>
+        <v>0.4375</v>
       </c>
       <c r="L64">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M64">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -3454,21 +3598,21 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="K65">
-        <v>0.4193548387096774</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="L65">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M65">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -3480,21 +3624,21 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="K66">
-        <v>0.3389830508474576</v>
+        <v>0.325</v>
       </c>
       <c r="L66">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M66">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -3506,21 +3650,21 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="K67">
-        <v>0.3055555555555556</v>
+        <v>0.3220338983050847</v>
       </c>
       <c r="L67">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="M67">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -3532,21 +3676,21 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="K68">
-        <v>0.2631578947368421</v>
+        <v>0.2954545454545455</v>
       </c>
       <c r="L68">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M68">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -3558,21 +3702,21 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="K69">
-        <v>0.2295081967213115</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="L69">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M69">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -3584,145 +3728,145 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="K70">
-        <v>0.1544715447154472</v>
+        <v>0.1290322580645161</v>
       </c>
       <c r="L70">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M70">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N70">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O70">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q70">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="K71">
-        <v>0.1258741258741259</v>
+        <v>0.1226415094339623</v>
       </c>
       <c r="L71">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M71">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N71">
-        <v>1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="O71">
-        <v>0</v>
+        <v>0.1899999999999999</v>
       </c>
       <c r="P71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q71">
-        <v>125</v>
+        <v>93</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="K72">
-        <v>0.04545454545454546</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="L72">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M72">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N72">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O72">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q72">
-        <v>294</v>
+        <v>168</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="K73">
-        <v>0.03836930455635491</v>
+        <v>0.05523012552301255</v>
       </c>
       <c r="L73">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="M73">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="N73">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="O73">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P73" t="b">
         <v>1</v>
       </c>
       <c r="Q73">
-        <v>401</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="K74">
-        <v>0.03675856307435255</v>
+        <v>0.05118829981718465</v>
       </c>
       <c r="L74">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="M74">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="N74">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O74">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q74">
-        <v>1153</v>
+        <v>519</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="K75">
-        <v>0.0360576923076923</v>
+        <v>0.0487012987012987</v>
       </c>
       <c r="L75">
         <v>15</v>
@@ -3740,21 +3884,21 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>401</v>
+        <v>293</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="K76">
-        <v>0.03290676416819013</v>
+        <v>0.04297994269340974</v>
       </c>
       <c r="L76">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M76">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N76">
         <v>1</v>
@@ -3766,397 +3910,605 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>529</v>
+        <v>334</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="K77">
-        <v>0.02980132450331126</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="L77">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M77">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N77">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O77">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q77">
-        <v>586</v>
+        <v>400</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="K78">
-        <v>0.02332657200811359</v>
+        <v>0.03836930455635491</v>
       </c>
       <c r="L78">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="M78">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="N78">
-        <v>0.88</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O78">
-        <v>0.12</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P78" t="b">
         <v>1</v>
       </c>
       <c r="Q78">
-        <v>963</v>
+        <v>401</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>46</v>
+        <v>132</v>
       </c>
       <c r="K79">
-        <v>0.0188040616773223</v>
+        <v>0.02990033222591362</v>
       </c>
       <c r="L79">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="M79">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="N79">
-        <v>0.78</v>
+        <v>0.86</v>
       </c>
       <c r="O79">
-        <v>0.22</v>
+        <v>0.14</v>
       </c>
       <c r="P79" t="b">
         <v>1</v>
       </c>
       <c r="Q79">
-        <v>2609</v>
+        <v>584</v>
       </c>
     </row>
     <row r="80" spans="10:17">
       <c r="J80" s="1" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="K80">
-        <v>0.01732435033686237</v>
+        <v>0.02957486136783734</v>
       </c>
       <c r="L80">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M80">
         <v>19</v>
       </c>
       <c r="N80">
-        <v>0.95</v>
+        <v>0.84</v>
       </c>
       <c r="O80">
-        <v>0.05000000000000004</v>
+        <v>0.16</v>
       </c>
       <c r="P80" t="b">
         <v>1</v>
       </c>
       <c r="Q80">
-        <v>1021</v>
+        <v>525</v>
       </c>
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="K81">
-        <v>0.01553829078801332</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="L81">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M81">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="N81">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="O81">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="P81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q81">
-        <v>887</v>
+        <v>630</v>
       </c>
     </row>
     <row r="82" spans="10:17">
       <c r="J82" s="1" t="s">
-        <v>129</v>
+        <v>49</v>
       </c>
       <c r="K82">
-        <v>0.01505016722408027</v>
+        <v>0.02110022607385079</v>
       </c>
       <c r="L82">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="M82">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="N82">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="O82">
-        <v>0.05000000000000004</v>
+        <v>0.25</v>
       </c>
       <c r="P82" t="b">
         <v>1</v>
       </c>
       <c r="Q82">
-        <v>2356</v>
+        <v>2598</v>
       </c>
     </row>
     <row r="83" spans="10:17">
       <c r="J83" s="1" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="K83">
-        <v>0.0140625</v>
+        <v>0.02093802345058627</v>
       </c>
       <c r="L83">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="M83">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="N83">
-        <v>0.67</v>
+        <v>0.89</v>
       </c>
       <c r="O83">
-        <v>0.33</v>
+        <v>0.11</v>
       </c>
       <c r="P83" t="b">
         <v>1</v>
       </c>
       <c r="Q83">
-        <v>1262</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="84" spans="10:17">
       <c r="J84" s="1" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="K84">
-        <v>0.01386263390044108</v>
+        <v>0.02079395085066163</v>
       </c>
       <c r="L84">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="M84">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="N84">
-        <v>0.76</v>
+        <v>0.82</v>
       </c>
       <c r="O84">
-        <v>0.24</v>
+        <v>0.18</v>
       </c>
       <c r="P84" t="b">
         <v>1</v>
       </c>
       <c r="Q84">
-        <v>1565</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="85" spans="10:17">
       <c r="J85" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="K85">
-        <v>0.01152482269503546</v>
+        <v>0.0203125</v>
       </c>
       <c r="L85">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M85">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="N85">
-        <v>0.52</v>
+        <v>0.74</v>
       </c>
       <c r="O85">
-        <v>0.48</v>
+        <v>0.26</v>
       </c>
       <c r="P85" t="b">
         <v>1</v>
       </c>
       <c r="Q85">
-        <v>1115</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="86" spans="10:17">
       <c r="J86" s="1" t="s">
-        <v>45</v>
+        <v>138</v>
       </c>
       <c r="K86">
-        <v>0.01110654051830522</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="L86">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="M86">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="N86">
-        <v>0.66</v>
+        <v>0.85</v>
       </c>
       <c r="O86">
-        <v>0.34</v>
+        <v>0.15</v>
       </c>
       <c r="P86" t="b">
         <v>1</v>
       </c>
       <c r="Q86">
-        <v>2404</v>
+        <v>969</v>
       </c>
     </row>
     <row r="87" spans="10:17">
       <c r="J87" s="1" t="s">
-        <v>48</v>
+        <v>139</v>
       </c>
       <c r="K87">
-        <v>0.009849246231155779</v>
+        <v>0.01714285714285714</v>
       </c>
       <c r="L87">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="M87">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="N87">
-        <v>0.7</v>
+        <v>0.83</v>
       </c>
       <c r="O87">
-        <v>0.3</v>
+        <v>0.17</v>
       </c>
       <c r="P87" t="b">
         <v>1</v>
       </c>
       <c r="Q87">
-        <v>4926</v>
+        <v>860</v>
       </c>
     </row>
     <row r="88" spans="10:17">
       <c r="J88" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K88">
-        <v>0.009721952167995334</v>
+        <v>0.01647446457990115</v>
       </c>
       <c r="L88">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="M88">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="N88">
-        <v>0.6899999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="O88">
-        <v>0.3100000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="P88" t="b">
         <v>1</v>
       </c>
       <c r="Q88">
-        <v>5093</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="89" spans="10:17">
       <c r="J89" s="1" t="s">
-        <v>49</v>
+        <v>140</v>
       </c>
       <c r="K89">
-        <v>0.009512761020881671</v>
+        <v>0.0154291224686596</v>
       </c>
       <c r="L89">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="M89">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="N89">
-        <v>0.6899999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="O89">
-        <v>0.3100000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="P89" t="b">
         <v>1</v>
       </c>
       <c r="Q89">
-        <v>4269</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="90" spans="10:17">
       <c r="J90" s="1" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="K90">
-        <v>0.009430996541967935</v>
+        <v>0.0153942821237826</v>
       </c>
       <c r="L90">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="M90">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="N90">
-        <v>0.6</v>
+        <v>0.73</v>
       </c>
       <c r="O90">
-        <v>0.4</v>
+        <v>0.27</v>
       </c>
       <c r="P90" t="b">
         <v>1</v>
       </c>
       <c r="Q90">
-        <v>3151</v>
+        <v>3134</v>
       </c>
     </row>
     <row r="91" spans="10:17">
       <c r="J91" s="1" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="K91">
-        <v>0.007899628252788104</v>
+        <v>0.0144284128745838</v>
       </c>
       <c r="L91">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M91">
+        <v>13</v>
+      </c>
+      <c r="N91">
+        <v>1</v>
+      </c>
+      <c r="O91">
+        <v>0</v>
+      </c>
+      <c r="P91" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q91">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="92" spans="10:17">
+      <c r="J92" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K92">
+        <v>0.01389448248086991</v>
+      </c>
+      <c r="L92">
+        <v>69</v>
+      </c>
+      <c r="M92">
+        <v>99</v>
+      </c>
+      <c r="N92">
+        <v>0.7</v>
+      </c>
+      <c r="O92">
+        <v>0.3</v>
+      </c>
+      <c r="P92" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q92">
+        <v>4897</v>
+      </c>
+    </row>
+    <row r="93" spans="10:17">
+      <c r="J93" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K93">
+        <v>0.01366386882685926</v>
+      </c>
+      <c r="L93">
+        <v>70</v>
+      </c>
+      <c r="M93">
+        <v>112</v>
+      </c>
+      <c r="N93">
+        <v>0.62</v>
+      </c>
+      <c r="O93">
+        <v>0.38</v>
+      </c>
+      <c r="P93" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q93">
+        <v>5053</v>
+      </c>
+    </row>
+    <row r="94" spans="10:17">
+      <c r="J94" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K94">
+        <v>0.01072261072261072</v>
+      </c>
+      <c r="L94">
         <v>23</v>
       </c>
-      <c r="N91">
-        <v>0.74</v>
-      </c>
-      <c r="O91">
-        <v>0.26</v>
-      </c>
-      <c r="P91" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q91">
-        <v>2135</v>
+      <c r="M94">
+        <v>36</v>
+      </c>
+      <c r="N94">
+        <v>0.64</v>
+      </c>
+      <c r="O94">
+        <v>0.36</v>
+      </c>
+      <c r="P94" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q94">
+        <v>2122</v>
+      </c>
+    </row>
+    <row r="95" spans="10:17">
+      <c r="J95" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K95">
+        <v>0.01044810773159972</v>
+      </c>
+      <c r="L95">
+        <v>45</v>
+      </c>
+      <c r="M95">
+        <v>66</v>
+      </c>
+      <c r="N95">
+        <v>0.68</v>
+      </c>
+      <c r="O95">
+        <v>0.32</v>
+      </c>
+      <c r="P95" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q95">
+        <v>4262</v>
+      </c>
+    </row>
+    <row r="96" spans="10:17">
+      <c r="J96" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K96">
+        <v>0.009962049335863378</v>
+      </c>
+      <c r="L96">
+        <v>21</v>
+      </c>
+      <c r="M96">
+        <v>56</v>
+      </c>
+      <c r="N96">
+        <v>0.38</v>
+      </c>
+      <c r="O96">
+        <v>0.62</v>
+      </c>
+      <c r="P96" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q96">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="97" spans="10:17">
+      <c r="J97" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K97">
+        <v>0.009214567792891619</v>
+      </c>
+      <c r="L97">
+        <v>21</v>
+      </c>
+      <c r="M97">
+        <v>51</v>
+      </c>
+      <c r="N97">
+        <v>0.41</v>
+      </c>
+      <c r="O97">
+        <v>0.5900000000000001</v>
+      </c>
+      <c r="P97" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q97">
+        <v>2258</v>
+      </c>
+    </row>
+    <row r="98" spans="10:17">
+      <c r="J98" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K98">
+        <v>0.006412997007268063</v>
+      </c>
+      <c r="L98">
+        <v>15</v>
+      </c>
+      <c r="M98">
+        <v>55</v>
+      </c>
+      <c r="N98">
+        <v>0.27</v>
+      </c>
+      <c r="O98">
+        <v>0.73</v>
+      </c>
+      <c r="P98" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q98">
+        <v>2324</v>
+      </c>
+    </row>
+    <row r="99" spans="10:17">
+      <c r="J99" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K99">
+        <v>0.004256712508185986</v>
+      </c>
+      <c r="L99">
+        <v>13</v>
+      </c>
+      <c r="M99">
+        <v>66</v>
+      </c>
+      <c r="N99">
+        <v>0.2</v>
+      </c>
+      <c r="O99">
+        <v>0.8</v>
+      </c>
+      <c r="P99" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q99">
+        <v>3041</v>
       </c>
     </row>
   </sheetData>
